--- a/database/industries/madani/shamla/product/monthly.xlsx
+++ b/database/industries/madani/shamla/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\madani\shamla\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238880C9-5CC3-45D3-ACAB-FF46832789E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF04C37C-4CB5-4436-9217-A1CB4DE34270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 4 منتهی به 1398/04</t>
   </si>
   <si>
     <t>ماه 5 منتهی به 1398/05</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 5 منتهی به 1402/05</t>
+  </si>
+  <si>
+    <t>ماه 6 منتهی به 1402/06</t>
   </si>
   <si>
     <t>پودر سولفات سدیم</t>
@@ -1494,154 +1494,154 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>14901</v>
+        <v>15520</v>
       </c>
       <c r="F12" s="9">
+        <v>15635</v>
+      </c>
+      <c r="G12" s="9">
+        <v>15461</v>
+      </c>
+      <c r="H12" s="9">
+        <v>15661</v>
+      </c>
+      <c r="I12" s="9">
+        <v>15765</v>
+      </c>
+      <c r="J12" s="9">
+        <v>15971</v>
+      </c>
+      <c r="K12" s="9">
+        <v>15630</v>
+      </c>
+      <c r="L12" s="9">
+        <v>15101</v>
+      </c>
+      <c r="M12" s="9">
+        <v>16421</v>
+      </c>
+      <c r="N12" s="9">
+        <v>16455</v>
+      </c>
+      <c r="O12" s="9">
+        <v>16312</v>
+      </c>
+      <c r="P12" s="9">
+        <v>16119</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>15666</v>
+      </c>
+      <c r="R12" s="9">
+        <v>15164</v>
+      </c>
+      <c r="S12" s="9">
+        <v>13518</v>
+      </c>
+      <c r="T12" s="9">
+        <v>15652</v>
+      </c>
+      <c r="U12" s="9">
         <v>15520</v>
       </c>
-      <c r="G12" s="9">
-        <v>15635</v>
-      </c>
-      <c r="H12" s="9">
-        <v>15461</v>
-      </c>
-      <c r="I12" s="9">
-        <v>15661</v>
-      </c>
-      <c r="J12" s="9">
-        <v>15765</v>
-      </c>
-      <c r="K12" s="9">
-        <v>15971</v>
-      </c>
-      <c r="L12" s="9">
-        <v>15630</v>
-      </c>
-      <c r="M12" s="9">
-        <v>15101</v>
-      </c>
-      <c r="N12" s="9">
-        <v>16421</v>
-      </c>
-      <c r="O12" s="9">
-        <v>16455</v>
-      </c>
-      <c r="P12" s="9">
-        <v>16312</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>16119</v>
-      </c>
-      <c r="R12" s="9">
-        <v>15666</v>
-      </c>
-      <c r="S12" s="9">
-        <v>15164</v>
-      </c>
-      <c r="T12" s="9">
-        <v>13518</v>
-      </c>
-      <c r="U12" s="9">
-        <v>15652</v>
-      </c>
       <c r="V12" s="9">
-        <v>15520</v>
+        <v>14333</v>
       </c>
       <c r="W12" s="9">
-        <v>14333</v>
+        <v>15334</v>
       </c>
       <c r="X12" s="9">
-        <v>15334</v>
+        <v>14519</v>
       </c>
       <c r="Y12" s="9">
-        <v>14519</v>
+        <v>15701</v>
       </c>
       <c r="Z12" s="9">
-        <v>15701</v>
+        <v>15287</v>
       </c>
       <c r="AA12" s="9">
-        <v>15287</v>
+        <v>15735</v>
       </c>
       <c r="AB12" s="9">
-        <v>15735</v>
+        <v>15625</v>
       </c>
       <c r="AC12" s="9">
-        <v>15625</v>
+        <v>14959</v>
       </c>
       <c r="AD12" s="9">
-        <v>14959</v>
+        <v>15595</v>
       </c>
       <c r="AE12" s="9">
-        <v>15595</v>
+        <v>15727</v>
       </c>
       <c r="AF12" s="9">
-        <v>15727</v>
+        <v>15886</v>
       </c>
       <c r="AG12" s="9">
+        <v>15837</v>
+      </c>
+      <c r="AH12" s="9">
+        <v>15821</v>
+      </c>
+      <c r="AI12" s="9">
+        <v>15733</v>
+      </c>
+      <c r="AJ12" s="9">
+        <v>15272</v>
+      </c>
+      <c r="AK12" s="9">
         <v>15886</v>
       </c>
-      <c r="AH12" s="9">
-        <v>15837</v>
-      </c>
-      <c r="AI12" s="9">
-        <v>15821</v>
-      </c>
-      <c r="AJ12" s="9">
-        <v>15733</v>
-      </c>
-      <c r="AK12" s="9">
-        <v>15272</v>
-      </c>
       <c r="AL12" s="9">
-        <v>15886</v>
+        <v>15763</v>
       </c>
       <c r="AM12" s="9">
-        <v>15763</v>
+        <v>15897</v>
       </c>
       <c r="AN12" s="9">
-        <v>15897</v>
+        <v>15904</v>
       </c>
       <c r="AO12" s="9">
-        <v>15904</v>
+        <v>15743</v>
       </c>
       <c r="AP12" s="9">
-        <v>15743</v>
+        <v>15772</v>
       </c>
       <c r="AQ12" s="9">
-        <v>15772</v>
+        <v>15566</v>
       </c>
       <c r="AR12" s="9">
-        <v>15566</v>
+        <v>15609</v>
       </c>
       <c r="AS12" s="9">
-        <v>15609</v>
+        <v>15348</v>
       </c>
       <c r="AT12" s="9">
-        <v>15348</v>
+        <v>15201</v>
       </c>
       <c r="AU12" s="9">
-        <v>15201</v>
+        <v>15280</v>
       </c>
       <c r="AV12" s="9">
-        <v>15280</v>
+        <v>14109</v>
       </c>
       <c r="AW12" s="9">
-        <v>14109</v>
+        <v>15556</v>
       </c>
       <c r="AX12" s="9">
-        <v>15556</v>
+        <v>15830</v>
       </c>
       <c r="AY12" s="9">
-        <v>15830</v>
+        <v>15718</v>
       </c>
       <c r="AZ12" s="9">
-        <v>15718</v>
+        <v>15645</v>
       </c>
       <c r="BA12" s="9">
-        <v>15645</v>
+        <v>15774</v>
       </c>
       <c r="BB12" s="9">
-        <v>15774</v>
+        <v>15647</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1653,154 +1653,154 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>8350</v>
+        <v>7886</v>
       </c>
       <c r="F13" s="13">
-        <v>7886</v>
+        <v>7648</v>
       </c>
       <c r="G13" s="13">
-        <v>7648</v>
+        <v>6506</v>
       </c>
       <c r="H13" s="13">
-        <v>6506</v>
+        <v>6820</v>
       </c>
       <c r="I13" s="13">
-        <v>6820</v>
+        <v>7149</v>
       </c>
       <c r="J13" s="13">
-        <v>7149</v>
+        <v>7708</v>
       </c>
       <c r="K13" s="13">
-        <v>7708</v>
+        <v>7201</v>
       </c>
       <c r="L13" s="13">
-        <v>7201</v>
+        <v>6700</v>
       </c>
       <c r="M13" s="13">
-        <v>6700</v>
+        <v>6127</v>
       </c>
       <c r="N13" s="13">
-        <v>6127</v>
+        <v>7128</v>
       </c>
       <c r="O13" s="13">
-        <v>7128</v>
+        <v>5447</v>
       </c>
       <c r="P13" s="13">
-        <v>5447</v>
+        <v>6188</v>
       </c>
       <c r="Q13" s="13">
-        <v>6188</v>
+        <v>6464</v>
       </c>
       <c r="R13" s="13">
-        <v>6464</v>
+        <v>7278</v>
       </c>
       <c r="S13" s="13">
-        <v>7278</v>
+        <v>6962</v>
       </c>
       <c r="T13" s="13">
-        <v>6962</v>
+        <v>7140</v>
       </c>
       <c r="U13" s="13">
-        <v>7140</v>
+        <v>5766</v>
       </c>
       <c r="V13" s="13">
-        <v>5766</v>
+        <v>6813</v>
       </c>
       <c r="W13" s="13">
-        <v>6813</v>
+        <v>7250</v>
       </c>
       <c r="X13" s="13">
-        <v>7250</v>
+        <v>7231</v>
       </c>
       <c r="Y13" s="13">
-        <v>7231</v>
+        <v>7300</v>
       </c>
       <c r="Z13" s="13">
-        <v>7300</v>
+        <v>7379</v>
       </c>
       <c r="AA13" s="13">
-        <v>7379</v>
+        <v>6705</v>
       </c>
       <c r="AB13" s="13">
-        <v>6705</v>
+        <v>7203</v>
       </c>
       <c r="AC13" s="13">
-        <v>7203</v>
+        <v>7805</v>
       </c>
       <c r="AD13" s="13">
-        <v>7805</v>
+        <v>9122</v>
       </c>
       <c r="AE13" s="13">
-        <v>9122</v>
+        <v>9021</v>
       </c>
       <c r="AF13" s="13">
-        <v>9021</v>
+        <v>7377</v>
       </c>
       <c r="AG13" s="13">
-        <v>7377</v>
+        <v>10276</v>
       </c>
       <c r="AH13" s="13">
-        <v>10276</v>
+        <v>8221</v>
       </c>
       <c r="AI13" s="13">
-        <v>8221</v>
+        <v>8557</v>
       </c>
       <c r="AJ13" s="13">
-        <v>8557</v>
+        <v>9734</v>
       </c>
       <c r="AK13" s="13">
-        <v>9734</v>
+        <v>5339</v>
       </c>
       <c r="AL13" s="13">
-        <v>5339</v>
+        <v>9640</v>
       </c>
       <c r="AM13" s="13">
-        <v>9640</v>
+        <v>10301</v>
       </c>
       <c r="AN13" s="13">
-        <v>10301</v>
+        <v>11100</v>
       </c>
       <c r="AO13" s="13">
+        <v>11725</v>
+      </c>
+      <c r="AP13" s="13">
+        <v>11299</v>
+      </c>
+      <c r="AQ13" s="13">
+        <v>10400</v>
+      </c>
+      <c r="AR13" s="13">
+        <v>9949</v>
+      </c>
+      <c r="AS13" s="13">
+        <v>10126</v>
+      </c>
+      <c r="AT13" s="13">
+        <v>7456</v>
+      </c>
+      <c r="AU13" s="13">
+        <v>6131</v>
+      </c>
+      <c r="AV13" s="13">
+        <v>9649</v>
+      </c>
+      <c r="AW13" s="13">
+        <v>9700</v>
+      </c>
+      <c r="AX13" s="13">
+        <v>10727</v>
+      </c>
+      <c r="AY13" s="13">
         <v>11100</v>
       </c>
-      <c r="AP13" s="13">
-        <v>11725</v>
-      </c>
-      <c r="AQ13" s="13">
-        <v>11299</v>
-      </c>
-      <c r="AR13" s="13">
-        <v>10400</v>
-      </c>
-      <c r="AS13" s="13">
-        <v>9949</v>
-      </c>
-      <c r="AT13" s="13">
-        <v>10126</v>
-      </c>
-      <c r="AU13" s="13">
-        <v>7456</v>
-      </c>
-      <c r="AV13" s="13">
-        <v>6131</v>
-      </c>
-      <c r="AW13" s="13">
-        <v>9649</v>
-      </c>
-      <c r="AX13" s="13">
-        <v>9700</v>
-      </c>
-      <c r="AY13" s="13">
-        <v>10727</v>
-      </c>
       <c r="AZ13" s="13">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="BA13" s="13">
-        <v>11200</v>
+        <v>10866</v>
       </c>
       <c r="BB13" s="13">
-        <v>10866</v>
+        <v>10638</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1907,8 +1907,8 @@
       <c r="AJ14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AK14" s="9" t="s">
-        <v>59</v>
+      <c r="AK14" s="9">
+        <v>0</v>
       </c>
       <c r="AL14" s="9">
         <v>0</v>
@@ -2066,8 +2066,8 @@
       <c r="AJ15" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AK15" s="13" t="s">
-        <v>59</v>
+      <c r="AK15" s="13">
+        <v>0</v>
       </c>
       <c r="AL15" s="13">
         <v>0</v>
@@ -2342,154 +2342,154 @@
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19">
-        <v>23251</v>
+        <v>23406</v>
       </c>
       <c r="F18" s="19">
-        <v>23406</v>
+        <v>23283</v>
       </c>
       <c r="G18" s="19">
-        <v>23283</v>
+        <v>21967</v>
       </c>
       <c r="H18" s="19">
-        <v>21967</v>
+        <v>22481</v>
       </c>
       <c r="I18" s="19">
-        <v>22481</v>
+        <v>22914</v>
       </c>
       <c r="J18" s="19">
-        <v>22914</v>
+        <v>23679</v>
       </c>
       <c r="K18" s="19">
-        <v>23679</v>
+        <v>22831</v>
       </c>
       <c r="L18" s="19">
-        <v>22831</v>
+        <v>21801</v>
       </c>
       <c r="M18" s="19">
-        <v>21801</v>
+        <v>22548</v>
       </c>
       <c r="N18" s="19">
-        <v>22548</v>
+        <v>23583</v>
       </c>
       <c r="O18" s="19">
-        <v>23583</v>
+        <v>21759</v>
       </c>
       <c r="P18" s="19">
-        <v>21759</v>
+        <v>22307</v>
       </c>
       <c r="Q18" s="19">
-        <v>22307</v>
+        <v>22130</v>
       </c>
       <c r="R18" s="19">
-        <v>22130</v>
+        <v>22442</v>
       </c>
       <c r="S18" s="19">
-        <v>22442</v>
+        <v>20480</v>
       </c>
       <c r="T18" s="19">
-        <v>20480</v>
+        <v>22792</v>
       </c>
       <c r="U18" s="19">
-        <v>22792</v>
+        <v>21286</v>
       </c>
       <c r="V18" s="19">
-        <v>21286</v>
+        <v>21146</v>
       </c>
       <c r="W18" s="19">
-        <v>21146</v>
+        <v>22584</v>
       </c>
       <c r="X18" s="19">
-        <v>22584</v>
+        <v>21750</v>
       </c>
       <c r="Y18" s="19">
-        <v>21750</v>
+        <v>23001</v>
       </c>
       <c r="Z18" s="19">
-        <v>23001</v>
+        <v>22666</v>
       </c>
       <c r="AA18" s="19">
-        <v>22666</v>
+        <v>22440</v>
       </c>
       <c r="AB18" s="19">
-        <v>22440</v>
+        <v>22828</v>
       </c>
       <c r="AC18" s="19">
-        <v>22828</v>
+        <v>22764</v>
       </c>
       <c r="AD18" s="19">
-        <v>22764</v>
+        <v>24717</v>
       </c>
       <c r="AE18" s="19">
-        <v>24717</v>
+        <v>24748</v>
       </c>
       <c r="AF18" s="19">
-        <v>24748</v>
+        <v>23263</v>
       </c>
       <c r="AG18" s="19">
-        <v>23263</v>
+        <v>26113</v>
       </c>
       <c r="AH18" s="19">
-        <v>26113</v>
+        <v>24042</v>
       </c>
       <c r="AI18" s="19">
-        <v>24042</v>
+        <v>24290</v>
       </c>
       <c r="AJ18" s="19">
-        <v>24290</v>
+        <v>25006</v>
       </c>
       <c r="AK18" s="19">
-        <v>25006</v>
+        <v>21225</v>
       </c>
       <c r="AL18" s="19">
-        <v>21225</v>
+        <v>25403</v>
       </c>
       <c r="AM18" s="19">
-        <v>25403</v>
+        <v>26198</v>
       </c>
       <c r="AN18" s="19">
-        <v>26198</v>
+        <v>27004</v>
       </c>
       <c r="AO18" s="19">
-        <v>27004</v>
+        <v>27468</v>
       </c>
       <c r="AP18" s="19">
-        <v>27468</v>
+        <v>27071</v>
       </c>
       <c r="AQ18" s="19">
-        <v>27071</v>
+        <v>25966</v>
       </c>
       <c r="AR18" s="19">
-        <v>25966</v>
+        <v>25558</v>
       </c>
       <c r="AS18" s="19">
-        <v>25558</v>
+        <v>25474</v>
       </c>
       <c r="AT18" s="19">
-        <v>25474</v>
+        <v>22657</v>
       </c>
       <c r="AU18" s="19">
-        <v>22657</v>
+        <v>21411</v>
       </c>
       <c r="AV18" s="19">
-        <v>21411</v>
+        <v>23758</v>
       </c>
       <c r="AW18" s="19">
-        <v>23758</v>
+        <v>25256</v>
       </c>
       <c r="AX18" s="19">
-        <v>25256</v>
+        <v>26557</v>
       </c>
       <c r="AY18" s="19">
-        <v>26557</v>
+        <v>26818</v>
       </c>
       <c r="AZ18" s="19">
-        <v>26818</v>
+        <v>26845</v>
       </c>
       <c r="BA18" s="19">
-        <v>26845</v>
+        <v>26640</v>
       </c>
       <c r="BB18" s="19">
-        <v>26640</v>
+        <v>26285</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2990,154 +2990,154 @@
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>16070</v>
+        <v>12739</v>
       </c>
       <c r="F26" s="9">
-        <v>12739</v>
+        <v>15869</v>
       </c>
       <c r="G26" s="9">
-        <v>15869</v>
+        <v>15153</v>
       </c>
       <c r="H26" s="9">
-        <v>15153</v>
+        <v>14462</v>
       </c>
       <c r="I26" s="9">
-        <v>14462</v>
+        <v>14444</v>
       </c>
       <c r="J26" s="9">
-        <v>14444</v>
+        <v>17554</v>
       </c>
       <c r="K26" s="9">
-        <v>17554</v>
+        <v>19445</v>
       </c>
       <c r="L26" s="9">
-        <v>19445</v>
+        <v>15615</v>
       </c>
       <c r="M26" s="9">
-        <v>15615</v>
+        <v>13581</v>
       </c>
       <c r="N26" s="9">
-        <v>13581</v>
+        <v>19202</v>
       </c>
       <c r="O26" s="9">
-        <v>19202</v>
+        <v>16600</v>
       </c>
       <c r="P26" s="9">
-        <v>16600</v>
+        <v>16926</v>
       </c>
       <c r="Q26" s="9">
-        <v>16926</v>
+        <v>15104</v>
       </c>
       <c r="R26" s="9">
-        <v>15104</v>
+        <v>15516</v>
       </c>
       <c r="S26" s="9">
-        <v>15516</v>
+        <v>13576</v>
       </c>
       <c r="T26" s="9">
-        <v>13576</v>
+        <v>15213</v>
       </c>
       <c r="U26" s="9">
-        <v>15213</v>
+        <v>15474</v>
       </c>
       <c r="V26" s="9">
-        <v>15474</v>
+        <v>14644</v>
       </c>
       <c r="W26" s="9">
-        <v>14644</v>
+        <v>15011</v>
       </c>
       <c r="X26" s="9">
-        <v>15011</v>
+        <v>13407</v>
       </c>
       <c r="Y26" s="9">
-        <v>13407</v>
+        <v>12764</v>
       </c>
       <c r="Z26" s="9">
-        <v>12764</v>
+        <v>17686</v>
       </c>
       <c r="AA26" s="9">
-        <v>17686</v>
+        <v>16545</v>
       </c>
       <c r="AB26" s="9">
-        <v>16545</v>
+        <v>16091</v>
       </c>
       <c r="AC26" s="9">
-        <v>16091</v>
+        <v>11985</v>
       </c>
       <c r="AD26" s="9">
-        <v>11985</v>
+        <v>17158</v>
       </c>
       <c r="AE26" s="9">
-        <v>17158</v>
+        <v>14588</v>
       </c>
       <c r="AF26" s="9">
-        <v>14588</v>
+        <v>16241</v>
       </c>
       <c r="AG26" s="9">
-        <v>16241</v>
+        <v>14765</v>
       </c>
       <c r="AH26" s="9">
-        <v>14765</v>
+        <v>12219</v>
       </c>
       <c r="AI26" s="9">
-        <v>12219</v>
+        <v>11668</v>
       </c>
       <c r="AJ26" s="9">
-        <v>11668</v>
+        <v>21269</v>
       </c>
       <c r="AK26" s="9">
-        <v>21269</v>
+        <v>3991</v>
       </c>
       <c r="AL26" s="9">
-        <v>3991</v>
+        <v>15860</v>
       </c>
       <c r="AM26" s="9">
-        <v>15860</v>
+        <v>21987</v>
       </c>
       <c r="AN26" s="9">
-        <v>21987</v>
+        <v>20340</v>
       </c>
       <c r="AO26" s="9">
-        <v>20340</v>
+        <v>16581</v>
       </c>
       <c r="AP26" s="9">
-        <v>16581</v>
+        <v>13718</v>
       </c>
       <c r="AQ26" s="9">
-        <v>13718</v>
+        <v>11322</v>
       </c>
       <c r="AR26" s="9">
-        <v>11322</v>
+        <v>15876</v>
       </c>
       <c r="AS26" s="9">
-        <v>15876</v>
+        <v>19100</v>
       </c>
       <c r="AT26" s="9">
-        <v>19100</v>
+        <v>15911</v>
       </c>
       <c r="AU26" s="9">
-        <v>15911</v>
+        <v>18204</v>
       </c>
       <c r="AV26" s="9">
-        <v>18204</v>
+        <v>17276</v>
       </c>
       <c r="AW26" s="9">
-        <v>17276</v>
+        <v>16844</v>
       </c>
       <c r="AX26" s="9">
-        <v>16844</v>
+        <v>16683</v>
       </c>
       <c r="AY26" s="9">
-        <v>16683</v>
+        <v>15538</v>
       </c>
       <c r="AZ26" s="9">
-        <v>15538</v>
+        <v>15437</v>
       </c>
       <c r="BA26" s="9">
-        <v>15437</v>
+        <v>16054</v>
       </c>
       <c r="BB26" s="9">
-        <v>16054</v>
+        <v>15274</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3149,154 +3149,154 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13">
-        <v>8979</v>
+        <v>6486</v>
       </c>
       <c r="F27" s="13">
-        <v>6486</v>
+        <v>6891</v>
       </c>
       <c r="G27" s="13">
-        <v>6891</v>
+        <v>6952</v>
       </c>
       <c r="H27" s="13">
-        <v>6952</v>
+        <v>7396</v>
       </c>
       <c r="I27" s="13">
-        <v>7396</v>
+        <v>7101</v>
       </c>
       <c r="J27" s="13">
-        <v>7101</v>
+        <v>8333</v>
       </c>
       <c r="K27" s="13">
-        <v>8333</v>
+        <v>6961</v>
       </c>
       <c r="L27" s="13">
-        <v>6961</v>
+        <v>5906</v>
       </c>
       <c r="M27" s="13">
-        <v>5906</v>
+        <v>7612</v>
       </c>
       <c r="N27" s="13">
-        <v>7612</v>
+        <v>6084</v>
       </c>
       <c r="O27" s="13">
-        <v>6084</v>
+        <v>6184</v>
       </c>
       <c r="P27" s="13">
-        <v>6184</v>
+        <v>6500</v>
       </c>
       <c r="Q27" s="13">
-        <v>6500</v>
+        <v>5648</v>
       </c>
       <c r="R27" s="13">
-        <v>5648</v>
+        <v>7056</v>
       </c>
       <c r="S27" s="13">
-        <v>7056</v>
+        <v>7156</v>
       </c>
       <c r="T27" s="13">
-        <v>7156</v>
+        <v>6511</v>
       </c>
       <c r="U27" s="13">
-        <v>6511</v>
+        <v>5858</v>
       </c>
       <c r="V27" s="13">
-        <v>5858</v>
+        <v>7493</v>
       </c>
       <c r="W27" s="13">
-        <v>7493</v>
+        <v>7185</v>
       </c>
       <c r="X27" s="13">
-        <v>7185</v>
+        <v>6879</v>
       </c>
       <c r="Y27" s="13">
-        <v>6879</v>
+        <v>7483</v>
       </c>
       <c r="Z27" s="13">
-        <v>7483</v>
+        <v>6241</v>
       </c>
       <c r="AA27" s="13">
-        <v>6241</v>
+        <v>7709</v>
       </c>
       <c r="AB27" s="13">
-        <v>7709</v>
+        <v>6859</v>
       </c>
       <c r="AC27" s="13">
-        <v>6859</v>
+        <v>7566</v>
       </c>
       <c r="AD27" s="13">
-        <v>7566</v>
+        <v>8525</v>
       </c>
       <c r="AE27" s="13">
-        <v>8525</v>
+        <v>8334</v>
       </c>
       <c r="AF27" s="13">
-        <v>8334</v>
+        <v>8650</v>
       </c>
       <c r="AG27" s="13">
-        <v>8650</v>
+        <v>9758</v>
       </c>
       <c r="AH27" s="13">
-        <v>9758</v>
+        <v>7783</v>
       </c>
       <c r="AI27" s="13">
-        <v>7783</v>
+        <v>8133</v>
       </c>
       <c r="AJ27" s="13">
-        <v>8133</v>
+        <v>8940</v>
       </c>
       <c r="AK27" s="13">
-        <v>8940</v>
+        <v>6827</v>
       </c>
       <c r="AL27" s="13">
-        <v>6827</v>
+        <v>9733</v>
       </c>
       <c r="AM27" s="13">
-        <v>9733</v>
+        <v>10648</v>
       </c>
       <c r="AN27" s="13">
-        <v>10648</v>
+        <v>10289</v>
       </c>
       <c r="AO27" s="13">
-        <v>10289</v>
+        <v>12143</v>
       </c>
       <c r="AP27" s="13">
-        <v>12143</v>
+        <v>10253</v>
       </c>
       <c r="AQ27" s="13">
-        <v>10253</v>
+        <v>10083</v>
       </c>
       <c r="AR27" s="13">
-        <v>10083</v>
+        <v>10265</v>
       </c>
       <c r="AS27" s="13">
-        <v>10265</v>
+        <v>10392</v>
       </c>
       <c r="AT27" s="13">
-        <v>10392</v>
+        <v>9537</v>
       </c>
       <c r="AU27" s="13">
-        <v>9537</v>
+        <v>6224</v>
       </c>
       <c r="AV27" s="13">
-        <v>6224</v>
+        <v>8286</v>
       </c>
       <c r="AW27" s="13">
-        <v>8286</v>
+        <v>12701</v>
       </c>
       <c r="AX27" s="13">
-        <v>12701</v>
+        <v>7534</v>
       </c>
       <c r="AY27" s="13">
-        <v>7534</v>
+        <v>11000</v>
       </c>
       <c r="AZ27" s="13">
-        <v>11000</v>
+        <v>10039</v>
       </c>
       <c r="BA27" s="13">
-        <v>10039</v>
+        <v>11021</v>
       </c>
       <c r="BB27" s="13">
-        <v>11021</v>
+        <v>10376</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -3403,8 +3403,8 @@
       <c r="AJ28" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AK28" s="9" t="s">
-        <v>59</v>
+      <c r="AK28" s="9">
+        <v>0</v>
       </c>
       <c r="AL28" s="9">
         <v>0</v>
@@ -3562,8 +3562,8 @@
       <c r="AJ29" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AK29" s="13" t="s">
-        <v>59</v>
+      <c r="AK29" s="13">
+        <v>0</v>
       </c>
       <c r="AL29" s="13">
         <v>0</v>
@@ -3929,8 +3929,8 @@
       <c r="O33" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P33" s="9" t="s">
-        <v>59</v>
+      <c r="P33" s="9">
+        <v>0</v>
       </c>
       <c r="Q33" s="9">
         <v>0</v>
@@ -3959,8 +3959,8 @@
       <c r="Y33" s="9">
         <v>0</v>
       </c>
-      <c r="Z33" s="9">
-        <v>0</v>
+      <c r="Z33" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="AA33" s="9" t="s">
         <v>59</v>
@@ -4088,8 +4088,8 @@
       <c r="O34" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="P34" s="13" t="s">
-        <v>59</v>
+      <c r="P34" s="13">
+        <v>0</v>
       </c>
       <c r="Q34" s="13">
         <v>0</v>
@@ -4118,8 +4118,8 @@
       <c r="Y34" s="13">
         <v>0</v>
       </c>
-      <c r="Z34" s="13">
-        <v>0</v>
+      <c r="Z34" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AA34" s="13" t="s">
         <v>59</v>
@@ -4370,154 +4370,154 @@
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19">
-        <v>25049</v>
+        <v>19225</v>
       </c>
       <c r="F36" s="19">
-        <v>19225</v>
+        <v>22760</v>
       </c>
       <c r="G36" s="19">
-        <v>22760</v>
+        <v>22105</v>
       </c>
       <c r="H36" s="19">
-        <v>22105</v>
+        <v>21858</v>
       </c>
       <c r="I36" s="19">
-        <v>21858</v>
+        <v>21545</v>
       </c>
       <c r="J36" s="19">
-        <v>21545</v>
+        <v>25887</v>
       </c>
       <c r="K36" s="19">
-        <v>25887</v>
+        <v>26406</v>
       </c>
       <c r="L36" s="19">
-        <v>26406</v>
+        <v>21521</v>
       </c>
       <c r="M36" s="19">
-        <v>21521</v>
+        <v>21193</v>
       </c>
       <c r="N36" s="19">
-        <v>21193</v>
+        <v>25286</v>
       </c>
       <c r="O36" s="19">
-        <v>25286</v>
+        <v>22784</v>
       </c>
       <c r="P36" s="19">
-        <v>22784</v>
+        <v>23426</v>
       </c>
       <c r="Q36" s="19">
-        <v>23426</v>
+        <v>20752</v>
       </c>
       <c r="R36" s="19">
-        <v>20752</v>
+        <v>22572</v>
       </c>
       <c r="S36" s="19">
-        <v>22572</v>
+        <v>20732</v>
       </c>
       <c r="T36" s="19">
-        <v>20732</v>
+        <v>21724</v>
       </c>
       <c r="U36" s="19">
-        <v>21724</v>
+        <v>21332</v>
       </c>
       <c r="V36" s="19">
-        <v>21332</v>
+        <v>22137</v>
       </c>
       <c r="W36" s="19">
-        <v>22137</v>
+        <v>22196</v>
       </c>
       <c r="X36" s="19">
-        <v>22196</v>
+        <v>20286</v>
       </c>
       <c r="Y36" s="19">
-        <v>20286</v>
+        <v>20247</v>
       </c>
       <c r="Z36" s="19">
-        <v>20247</v>
+        <v>23927</v>
       </c>
       <c r="AA36" s="19">
-        <v>23927</v>
+        <v>24254</v>
       </c>
       <c r="AB36" s="19">
-        <v>24254</v>
+        <v>22950</v>
       </c>
       <c r="AC36" s="19">
-        <v>22950</v>
+        <v>19551</v>
       </c>
       <c r="AD36" s="19">
-        <v>19551</v>
+        <v>25683</v>
       </c>
       <c r="AE36" s="19">
-        <v>25683</v>
+        <v>22922</v>
       </c>
       <c r="AF36" s="19">
-        <v>22922</v>
+        <v>24891</v>
       </c>
       <c r="AG36" s="19">
-        <v>24891</v>
+        <v>24523</v>
       </c>
       <c r="AH36" s="19">
-        <v>24523</v>
+        <v>20002</v>
       </c>
       <c r="AI36" s="19">
-        <v>20002</v>
+        <v>19801</v>
       </c>
       <c r="AJ36" s="19">
-        <v>19801</v>
+        <v>30209</v>
       </c>
       <c r="AK36" s="19">
-        <v>30209</v>
+        <v>10818</v>
       </c>
       <c r="AL36" s="19">
-        <v>10818</v>
+        <v>25593</v>
       </c>
       <c r="AM36" s="19">
-        <v>25593</v>
+        <v>32635</v>
       </c>
       <c r="AN36" s="19">
-        <v>32635</v>
+        <v>30629</v>
       </c>
       <c r="AO36" s="19">
-        <v>30629</v>
+        <v>28724</v>
       </c>
       <c r="AP36" s="19">
-        <v>28724</v>
+        <v>23971</v>
       </c>
       <c r="AQ36" s="19">
-        <v>23971</v>
+        <v>21405</v>
       </c>
       <c r="AR36" s="19">
-        <v>21405</v>
+        <v>26141</v>
       </c>
       <c r="AS36" s="19">
-        <v>26141</v>
+        <v>29492</v>
       </c>
       <c r="AT36" s="19">
-        <v>29492</v>
+        <v>25448</v>
       </c>
       <c r="AU36" s="19">
-        <v>25448</v>
+        <v>24428</v>
       </c>
       <c r="AV36" s="19">
-        <v>24428</v>
+        <v>25562</v>
       </c>
       <c r="AW36" s="19">
-        <v>25562</v>
+        <v>29545</v>
       </c>
       <c r="AX36" s="19">
-        <v>29545</v>
+        <v>24217</v>
       </c>
       <c r="AY36" s="19">
-        <v>24217</v>
+        <v>26538</v>
       </c>
       <c r="AZ36" s="19">
-        <v>26538</v>
+        <v>25476</v>
       </c>
       <c r="BA36" s="19">
-        <v>25476</v>
+        <v>27075</v>
       </c>
       <c r="BB36" s="19">
-        <v>27075</v>
+        <v>25650</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -5018,154 +5018,154 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
-        <v>233528</v>
+        <v>159840</v>
       </c>
       <c r="F44" s="9">
-        <v>159840</v>
+        <v>218600</v>
       </c>
       <c r="G44" s="9">
-        <v>218600</v>
+        <v>217045</v>
       </c>
       <c r="H44" s="9">
-        <v>217045</v>
+        <v>194925</v>
       </c>
       <c r="I44" s="9">
-        <v>194925</v>
+        <v>200040</v>
       </c>
       <c r="J44" s="9">
-        <v>200040</v>
+        <v>246996</v>
       </c>
       <c r="K44" s="9">
-        <v>246996</v>
+        <v>277238</v>
       </c>
       <c r="L44" s="9">
-        <v>277238</v>
+        <v>219149</v>
       </c>
       <c r="M44" s="9">
-        <v>219149</v>
+        <v>167884</v>
       </c>
       <c r="N44" s="9">
-        <v>167884</v>
+        <v>254460</v>
       </c>
       <c r="O44" s="9">
-        <v>254460</v>
+        <v>215765</v>
       </c>
       <c r="P44" s="9">
-        <v>215765</v>
+        <v>246738</v>
       </c>
       <c r="Q44" s="9">
-        <v>246738</v>
+        <v>227469</v>
       </c>
       <c r="R44" s="9">
-        <v>227469</v>
+        <v>234095</v>
       </c>
       <c r="S44" s="9">
-        <v>234095</v>
+        <v>230177</v>
       </c>
       <c r="T44" s="9">
-        <v>230177</v>
+        <v>295754</v>
       </c>
       <c r="U44" s="9">
-        <v>295754</v>
+        <v>329620</v>
       </c>
       <c r="V44" s="9">
-        <v>329620</v>
+        <v>376397</v>
       </c>
       <c r="W44" s="9">
-        <v>376397</v>
+        <v>426246</v>
       </c>
       <c r="X44" s="9">
-        <v>426246</v>
+        <v>385238</v>
       </c>
       <c r="Y44" s="9">
-        <v>385238</v>
+        <v>327538</v>
       </c>
       <c r="Z44" s="9">
-        <v>327538</v>
+        <v>453017</v>
       </c>
       <c r="AA44" s="9">
-        <v>453017</v>
+        <v>422359</v>
       </c>
       <c r="AB44" s="9">
-        <v>422359</v>
+        <v>417870</v>
       </c>
       <c r="AC44" s="9">
-        <v>417870</v>
+        <v>307576</v>
       </c>
       <c r="AD44" s="9">
-        <v>307576</v>
+        <v>445603</v>
       </c>
       <c r="AE44" s="9">
-        <v>445603</v>
+        <v>398058</v>
       </c>
       <c r="AF44" s="9">
-        <v>398058</v>
+        <v>460037</v>
       </c>
       <c r="AG44" s="9">
-        <v>460037</v>
+        <v>420127</v>
       </c>
       <c r="AH44" s="9">
-        <v>420127</v>
+        <v>348851</v>
       </c>
       <c r="AI44" s="9">
-        <v>348851</v>
+        <v>343127</v>
       </c>
       <c r="AJ44" s="9">
-        <v>343127</v>
+        <v>605488</v>
       </c>
       <c r="AK44" s="9">
-        <v>605488</v>
+        <v>113319</v>
       </c>
       <c r="AL44" s="9">
-        <v>113319</v>
+        <v>449871</v>
       </c>
       <c r="AM44" s="9">
-        <v>449871</v>
+        <v>646834</v>
       </c>
       <c r="AN44" s="9">
-        <v>646834</v>
+        <v>633593</v>
       </c>
       <c r="AO44" s="9">
-        <v>633593</v>
+        <v>537098</v>
       </c>
       <c r="AP44" s="9">
-        <v>537098</v>
+        <v>484571</v>
       </c>
       <c r="AQ44" s="9">
-        <v>484571</v>
+        <v>400036</v>
       </c>
       <c r="AR44" s="9">
-        <v>400036</v>
+        <v>571922</v>
       </c>
       <c r="AS44" s="9">
-        <v>571922</v>
+        <v>680319</v>
       </c>
       <c r="AT44" s="9">
-        <v>680319</v>
+        <v>565593</v>
       </c>
       <c r="AU44" s="9">
-        <v>565593</v>
+        <v>663434</v>
       </c>
       <c r="AV44" s="9">
-        <v>663434</v>
+        <v>698289</v>
       </c>
       <c r="AW44" s="9">
-        <v>698289</v>
+        <v>780252</v>
       </c>
       <c r="AX44" s="9">
-        <v>780252</v>
+        <v>725163</v>
       </c>
       <c r="AY44" s="9">
-        <v>725163</v>
+        <v>663024</v>
       </c>
       <c r="AZ44" s="9">
-        <v>663024</v>
+        <v>695371</v>
       </c>
       <c r="BA44" s="9">
-        <v>695371</v>
+        <v>832026</v>
       </c>
       <c r="BB44" s="9">
-        <v>832026</v>
+        <v>940585</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -5177,154 +5177,154 @@
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
-        <v>30526</v>
+        <v>24180</v>
       </c>
       <c r="F45" s="13">
-        <v>24180</v>
+        <v>26524</v>
       </c>
       <c r="G45" s="13">
-        <v>26524</v>
+        <v>29756</v>
       </c>
       <c r="H45" s="13">
-        <v>29756</v>
+        <v>28402</v>
       </c>
       <c r="I45" s="13">
-        <v>28402</v>
+        <v>29357</v>
       </c>
       <c r="J45" s="13">
-        <v>29357</v>
+        <v>31623</v>
       </c>
       <c r="K45" s="13">
-        <v>31623</v>
+        <v>30163</v>
       </c>
       <c r="L45" s="13">
-        <v>30163</v>
+        <v>28721</v>
       </c>
       <c r="M45" s="13">
-        <v>28721</v>
+        <v>33879</v>
       </c>
       <c r="N45" s="13">
-        <v>33879</v>
+        <v>34659</v>
       </c>
       <c r="O45" s="13">
-        <v>34659</v>
+        <v>35587</v>
       </c>
       <c r="P45" s="13">
-        <v>35587</v>
+        <v>40550</v>
       </c>
       <c r="Q45" s="13">
-        <v>40550</v>
+        <v>39659</v>
       </c>
       <c r="R45" s="13">
-        <v>39659</v>
+        <v>46758</v>
       </c>
       <c r="S45" s="13">
-        <v>46758</v>
+        <v>49191</v>
       </c>
       <c r="T45" s="13">
-        <v>49191</v>
+        <v>55612</v>
       </c>
       <c r="U45" s="13">
-        <v>55612</v>
+        <v>57433</v>
       </c>
       <c r="V45" s="13">
-        <v>57433</v>
+        <v>62741</v>
       </c>
       <c r="W45" s="13">
-        <v>62741</v>
+        <v>60430</v>
       </c>
       <c r="X45" s="13">
-        <v>60430</v>
+        <v>55333</v>
       </c>
       <c r="Y45" s="13">
-        <v>55333</v>
+        <v>62899</v>
       </c>
       <c r="Z45" s="13">
-        <v>62899</v>
+        <v>63832</v>
       </c>
       <c r="AA45" s="13">
-        <v>63832</v>
+        <v>72460</v>
       </c>
       <c r="AB45" s="13">
-        <v>72460</v>
+        <v>71916</v>
       </c>
       <c r="AC45" s="13">
-        <v>71916</v>
+        <v>78713</v>
       </c>
       <c r="AD45" s="13">
-        <v>78713</v>
+        <v>93212</v>
       </c>
       <c r="AE45" s="13">
-        <v>93212</v>
+        <v>90117</v>
       </c>
       <c r="AF45" s="13">
-        <v>90117</v>
+        <v>94531</v>
       </c>
       <c r="AG45" s="13">
-        <v>94531</v>
+        <v>107643</v>
       </c>
       <c r="AH45" s="13">
-        <v>107643</v>
+        <v>95968</v>
       </c>
       <c r="AI45" s="13">
-        <v>95968</v>
+        <v>105775</v>
       </c>
       <c r="AJ45" s="13">
-        <v>105775</v>
+        <v>117256</v>
       </c>
       <c r="AK45" s="13">
-        <v>117256</v>
+        <v>83980</v>
       </c>
       <c r="AL45" s="13">
-        <v>83980</v>
+        <v>126564</v>
       </c>
       <c r="AM45" s="13">
-        <v>126564</v>
+        <v>135981</v>
       </c>
       <c r="AN45" s="13">
-        <v>135981</v>
+        <v>127017</v>
       </c>
       <c r="AO45" s="13">
-        <v>127017</v>
+        <v>160366</v>
       </c>
       <c r="AP45" s="13">
-        <v>160366</v>
+        <v>138675</v>
       </c>
       <c r="AQ45" s="13">
-        <v>138675</v>
+        <v>135512</v>
       </c>
       <c r="AR45" s="13">
-        <v>135512</v>
+        <v>152465</v>
       </c>
       <c r="AS45" s="13">
-        <v>152465</v>
+        <v>155732</v>
       </c>
       <c r="AT45" s="13">
-        <v>155732</v>
+        <v>149446</v>
       </c>
       <c r="AU45" s="13">
-        <v>149446</v>
+        <v>97387</v>
       </c>
       <c r="AV45" s="13">
-        <v>97387</v>
+        <v>138272</v>
       </c>
       <c r="AW45" s="13">
-        <v>138272</v>
+        <v>172738</v>
       </c>
       <c r="AX45" s="13">
-        <v>172738</v>
+        <v>206610</v>
       </c>
       <c r="AY45" s="13">
-        <v>206610</v>
+        <v>215805</v>
       </c>
       <c r="AZ45" s="13">
-        <v>215805</v>
+        <v>217206</v>
       </c>
       <c r="BA45" s="13">
-        <v>217206</v>
+        <v>237678</v>
       </c>
       <c r="BB45" s="13">
-        <v>237678</v>
+        <v>233076</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -5431,8 +5431,8 @@
       <c r="AJ46" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AK46" s="9" t="s">
-        <v>59</v>
+      <c r="AK46" s="9">
+        <v>0</v>
       </c>
       <c r="AL46" s="9">
         <v>0</v>
@@ -5590,8 +5590,8 @@
       <c r="AJ47" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AK47" s="13" t="s">
-        <v>59</v>
+      <c r="AK47" s="13">
+        <v>0</v>
       </c>
       <c r="AL47" s="13">
         <v>0</v>
@@ -5957,8 +5957,8 @@
       <c r="O51" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P51" s="9" t="s">
-        <v>59</v>
+      <c r="P51" s="9">
+        <v>0</v>
       </c>
       <c r="Q51" s="9">
         <v>0</v>
@@ -6020,8 +6020,8 @@
       <c r="AJ51" s="9">
         <v>0</v>
       </c>
-      <c r="AK51" s="9">
-        <v>0</v>
+      <c r="AK51" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="AL51" s="9" t="s">
         <v>59</v>
@@ -6116,8 +6116,8 @@
       <c r="O52" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="P52" s="13" t="s">
-        <v>59</v>
+      <c r="P52" s="13">
+        <v>0</v>
       </c>
       <c r="Q52" s="13">
         <v>0</v>
@@ -6179,8 +6179,8 @@
       <c r="AJ52" s="13">
         <v>0</v>
       </c>
-      <c r="AK52" s="13">
-        <v>0</v>
+      <c r="AK52" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AL52" s="13" t="s">
         <v>59</v>
@@ -6489,8 +6489,8 @@
       <c r="O55" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="9" t="s">
-        <v>59</v>
+      <c r="P55" s="9">
+        <v>0</v>
       </c>
       <c r="Q55" s="9">
         <v>0</v>
@@ -6771,154 +6771,154 @@
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17">
-        <v>264054</v>
+        <v>184020</v>
       </c>
       <c r="F57" s="17">
-        <v>184020</v>
+        <v>245124</v>
       </c>
       <c r="G57" s="17">
-        <v>245124</v>
+        <v>246801</v>
       </c>
       <c r="H57" s="17">
-        <v>246801</v>
+        <v>223327</v>
       </c>
       <c r="I57" s="17">
-        <v>223327</v>
+        <v>229397</v>
       </c>
       <c r="J57" s="17">
-        <v>229397</v>
+        <v>278619</v>
       </c>
       <c r="K57" s="17">
-        <v>278619</v>
+        <v>307401</v>
       </c>
       <c r="L57" s="17">
-        <v>307401</v>
+        <v>247870</v>
       </c>
       <c r="M57" s="17">
-        <v>247870</v>
+        <v>201763</v>
       </c>
       <c r="N57" s="17">
-        <v>201763</v>
+        <v>289119</v>
       </c>
       <c r="O57" s="17">
-        <v>289119</v>
+        <v>251352</v>
       </c>
       <c r="P57" s="17">
-        <v>251352</v>
+        <v>287288</v>
       </c>
       <c r="Q57" s="17">
-        <v>287288</v>
+        <v>267128</v>
       </c>
       <c r="R57" s="17">
-        <v>267128</v>
+        <v>280853</v>
       </c>
       <c r="S57" s="17">
-        <v>280853</v>
+        <v>279368</v>
       </c>
       <c r="T57" s="17">
-        <v>279368</v>
+        <v>351366</v>
       </c>
       <c r="U57" s="17">
-        <v>351366</v>
+        <v>387053</v>
       </c>
       <c r="V57" s="17">
-        <v>387053</v>
+        <v>439138</v>
       </c>
       <c r="W57" s="17">
-        <v>439138</v>
+        <v>486676</v>
       </c>
       <c r="X57" s="17">
-        <v>486676</v>
+        <v>440571</v>
       </c>
       <c r="Y57" s="17">
-        <v>440571</v>
+        <v>390437</v>
       </c>
       <c r="Z57" s="17">
-        <v>390437</v>
+        <v>516849</v>
       </c>
       <c r="AA57" s="17">
-        <v>516849</v>
+        <v>494819</v>
       </c>
       <c r="AB57" s="17">
-        <v>494819</v>
+        <v>489786</v>
       </c>
       <c r="AC57" s="17">
-        <v>489786</v>
+        <v>386289</v>
       </c>
       <c r="AD57" s="17">
-        <v>386289</v>
+        <v>538815</v>
       </c>
       <c r="AE57" s="17">
-        <v>538815</v>
+        <v>488175</v>
       </c>
       <c r="AF57" s="17">
-        <v>488175</v>
+        <v>554568</v>
       </c>
       <c r="AG57" s="17">
-        <v>554568</v>
+        <v>527770</v>
       </c>
       <c r="AH57" s="17">
-        <v>527770</v>
+        <v>444819</v>
       </c>
       <c r="AI57" s="17">
-        <v>444819</v>
+        <v>448902</v>
       </c>
       <c r="AJ57" s="17">
-        <v>448902</v>
+        <v>722744</v>
       </c>
       <c r="AK57" s="17">
-        <v>722744</v>
+        <v>197299</v>
       </c>
       <c r="AL57" s="17">
-        <v>197299</v>
+        <v>576435</v>
       </c>
       <c r="AM57" s="17">
-        <v>576435</v>
+        <v>782815</v>
       </c>
       <c r="AN57" s="17">
-        <v>782815</v>
+        <v>760610</v>
       </c>
       <c r="AO57" s="17">
-        <v>760610</v>
+        <v>697464</v>
       </c>
       <c r="AP57" s="17">
-        <v>697464</v>
+        <v>623246</v>
       </c>
       <c r="AQ57" s="17">
-        <v>623246</v>
+        <v>535548</v>
       </c>
       <c r="AR57" s="17">
-        <v>535548</v>
+        <v>724387</v>
       </c>
       <c r="AS57" s="17">
-        <v>724387</v>
+        <v>836051</v>
       </c>
       <c r="AT57" s="17">
-        <v>836051</v>
+        <v>715039</v>
       </c>
       <c r="AU57" s="17">
-        <v>715039</v>
+        <v>760821</v>
       </c>
       <c r="AV57" s="17">
-        <v>760821</v>
+        <v>836561</v>
       </c>
       <c r="AW57" s="17">
-        <v>836561</v>
+        <v>952990</v>
       </c>
       <c r="AX57" s="17">
-        <v>952990</v>
+        <v>931773</v>
       </c>
       <c r="AY57" s="17">
-        <v>931773</v>
+        <v>878829</v>
       </c>
       <c r="AZ57" s="17">
-        <v>878829</v>
+        <v>912577</v>
       </c>
       <c r="BA57" s="17">
-        <v>912577</v>
+        <v>1069704</v>
       </c>
       <c r="BB57" s="17">
-        <v>1069704</v>
+        <v>1173661</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7419,154 +7419,154 @@
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
-        <v>14531923</v>
+        <v>12547296</v>
       </c>
       <c r="F65" s="9">
-        <v>12547296</v>
+        <v>13775285</v>
       </c>
       <c r="G65" s="9">
-        <v>13775285</v>
+        <v>14323566</v>
       </c>
       <c r="H65" s="9">
-        <v>14323566</v>
+        <v>13478426</v>
       </c>
       <c r="I65" s="9">
-        <v>13478426</v>
+        <v>13849349</v>
       </c>
       <c r="J65" s="9">
-        <v>13849349</v>
+        <v>14070639</v>
       </c>
       <c r="K65" s="9">
-        <v>14070639</v>
+        <v>14257547</v>
       </c>
       <c r="L65" s="9">
-        <v>14257547</v>
+        <v>14034518</v>
       </c>
       <c r="M65" s="9">
-        <v>14034518</v>
+        <v>12361682</v>
       </c>
       <c r="N65" s="9">
-        <v>12361682</v>
+        <v>13251745</v>
       </c>
       <c r="O65" s="9">
-        <v>13251745</v>
+        <v>12997892</v>
       </c>
       <c r="P65" s="9">
-        <v>12997892</v>
+        <v>14577455</v>
       </c>
       <c r="Q65" s="9">
-        <v>14577455</v>
+        <v>15060183</v>
       </c>
       <c r="R65" s="9">
-        <v>15060183</v>
+        <v>15087329</v>
       </c>
       <c r="S65" s="9">
-        <v>15087329</v>
+        <v>16954699</v>
       </c>
       <c r="T65" s="9">
-        <v>16954699</v>
+        <v>19440873</v>
       </c>
       <c r="U65" s="9">
-        <v>19440873</v>
+        <v>21301538</v>
       </c>
       <c r="V65" s="9">
-        <v>21301538</v>
+        <v>25703155</v>
       </c>
       <c r="W65" s="9">
-        <v>25703155</v>
+        <v>28395577</v>
       </c>
       <c r="X65" s="9">
-        <v>28395577</v>
+        <v>28734094</v>
       </c>
       <c r="Y65" s="9">
-        <v>28734094</v>
+        <v>25661078</v>
       </c>
       <c r="Z65" s="9">
-        <v>25661078</v>
+        <v>25614441</v>
       </c>
       <c r="AA65" s="9">
-        <v>25614441</v>
+        <v>25527894</v>
       </c>
       <c r="AB65" s="9">
-        <v>25527894</v>
+        <v>25969175</v>
       </c>
       <c r="AC65" s="9">
-        <v>25969175</v>
+        <v>25663413</v>
       </c>
       <c r="AD65" s="9">
-        <v>25663413</v>
+        <v>25970568</v>
       </c>
       <c r="AE65" s="9">
-        <v>25970568</v>
+        <v>27286674</v>
       </c>
       <c r="AF65" s="9">
-        <v>27286674</v>
+        <v>28325657</v>
       </c>
       <c r="AG65" s="9">
-        <v>28325657</v>
+        <v>28454250</v>
       </c>
       <c r="AH65" s="9">
-        <v>28454250</v>
+        <v>28549881</v>
       </c>
       <c r="AI65" s="9">
-        <v>28549881</v>
+        <v>29407525</v>
       </c>
       <c r="AJ65" s="9">
-        <v>29407525</v>
+        <v>28468099</v>
       </c>
       <c r="AK65" s="9">
-        <v>28468099</v>
+        <v>28393636</v>
       </c>
       <c r="AL65" s="9">
-        <v>28393636</v>
+        <v>28365132</v>
       </c>
       <c r="AM65" s="9">
-        <v>28365132</v>
+        <v>29418929</v>
       </c>
       <c r="AN65" s="9">
-        <v>29418929</v>
+        <v>31150098</v>
       </c>
       <c r="AO65" s="9">
-        <v>31150098</v>
+        <v>32392377</v>
       </c>
       <c r="AP65" s="9">
-        <v>32392377</v>
+        <v>35323735</v>
       </c>
       <c r="AQ65" s="9">
-        <v>35323735</v>
+        <v>35332627</v>
       </c>
       <c r="AR65" s="9">
-        <v>35332627</v>
+        <v>36024313</v>
       </c>
       <c r="AS65" s="9">
-        <v>36024313</v>
+        <v>35618796</v>
       </c>
       <c r="AT65" s="9">
-        <v>35618796</v>
+        <v>35547294</v>
       </c>
       <c r="AU65" s="9">
-        <v>35547294</v>
+        <v>36444408</v>
       </c>
       <c r="AV65" s="9">
-        <v>36444408</v>
+        <v>40419599</v>
       </c>
       <c r="AW65" s="9">
-        <v>40419599</v>
+        <v>46322251</v>
       </c>
       <c r="AX65" s="9">
-        <v>46322251</v>
+        <v>43467182</v>
       </c>
       <c r="AY65" s="9">
-        <v>43467182</v>
+        <v>42671129</v>
       </c>
       <c r="AZ65" s="9">
-        <v>42671129</v>
+        <v>45045734</v>
       </c>
       <c r="BA65" s="9">
-        <v>45045734</v>
+        <v>51826710</v>
       </c>
       <c r="BB65" s="9">
-        <v>51826710</v>
+        <v>61580791</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -7578,154 +7578,154 @@
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13">
-        <v>3399710</v>
+        <v>3728030</v>
       </c>
       <c r="F66" s="13">
-        <v>3728030</v>
+        <v>3849079</v>
       </c>
       <c r="G66" s="13">
-        <v>3849079</v>
+        <v>4280207</v>
       </c>
       <c r="H66" s="13">
-        <v>4280207</v>
+        <v>3840184</v>
       </c>
       <c r="I66" s="13">
-        <v>3840184</v>
+        <v>4134206</v>
       </c>
       <c r="J66" s="13">
-        <v>4134206</v>
+        <v>3794912</v>
       </c>
       <c r="K66" s="13">
-        <v>3794912</v>
+        <v>4333142</v>
       </c>
       <c r="L66" s="13">
-        <v>4333142</v>
+        <v>4863021</v>
       </c>
       <c r="M66" s="13">
-        <v>4863021</v>
+        <v>4450736</v>
       </c>
       <c r="N66" s="13">
-        <v>4450736</v>
+        <v>5696746</v>
       </c>
       <c r="O66" s="13">
-        <v>5696746</v>
+        <v>5754690</v>
       </c>
       <c r="P66" s="13">
-        <v>5754690</v>
+        <v>6238462</v>
       </c>
       <c r="Q66" s="13">
-        <v>6238462</v>
+        <v>7021778</v>
       </c>
       <c r="R66" s="13">
-        <v>7021778</v>
+        <v>6626701</v>
       </c>
       <c r="S66" s="13">
-        <v>6626701</v>
+        <v>6874092</v>
       </c>
       <c r="T66" s="13">
-        <v>6874092</v>
+        <v>8541238</v>
       </c>
       <c r="U66" s="13">
-        <v>8541238</v>
+        <v>9804199</v>
       </c>
       <c r="V66" s="13">
-        <v>9804199</v>
+        <v>8373282</v>
       </c>
       <c r="W66" s="13">
-        <v>8373282</v>
+        <v>8410578</v>
       </c>
       <c r="X66" s="13">
-        <v>8410578</v>
+        <v>8043756</v>
       </c>
       <c r="Y66" s="13">
-        <v>8043756</v>
+        <v>8405586</v>
       </c>
       <c r="Z66" s="13">
-        <v>8405586</v>
+        <v>10227848</v>
       </c>
       <c r="AA66" s="13">
-        <v>10227848</v>
+        <v>9399403</v>
       </c>
       <c r="AB66" s="13">
-        <v>9399403</v>
+        <v>10484910</v>
       </c>
       <c r="AC66" s="13">
-        <v>10484910</v>
+        <v>10403516</v>
       </c>
       <c r="AD66" s="13">
-        <v>10403516</v>
+        <v>10933959</v>
       </c>
       <c r="AE66" s="13">
-        <v>10933959</v>
+        <v>10813175</v>
       </c>
       <c r="AF66" s="13">
-        <v>10813175</v>
+        <v>10928439</v>
       </c>
       <c r="AG66" s="13">
-        <v>10928439</v>
+        <v>11031256</v>
       </c>
       <c r="AH66" s="13">
-        <v>11031256</v>
+        <v>12330464</v>
       </c>
       <c r="AI66" s="13">
-        <v>12330464</v>
+        <v>13005656</v>
       </c>
       <c r="AJ66" s="13">
-        <v>13005656</v>
+        <v>13115884</v>
       </c>
       <c r="AK66" s="13">
-        <v>13115884</v>
+        <v>12301157</v>
       </c>
       <c r="AL66" s="13">
-        <v>12301157</v>
+        <v>13003596</v>
       </c>
       <c r="AM66" s="13">
-        <v>13003596</v>
+        <v>12770567</v>
       </c>
       <c r="AN66" s="13">
-        <v>12770567</v>
+        <v>12344931</v>
       </c>
       <c r="AO66" s="13">
-        <v>12344931</v>
+        <v>13206456</v>
       </c>
       <c r="AP66" s="13">
-        <v>13206456</v>
+        <v>13525310</v>
       </c>
       <c r="AQ66" s="13">
-        <v>13525310</v>
+        <v>13439651</v>
       </c>
       <c r="AR66" s="13">
-        <v>13439651</v>
+        <v>14852898</v>
       </c>
       <c r="AS66" s="13">
-        <v>14852898</v>
+        <v>14985758</v>
       </c>
       <c r="AT66" s="13">
-        <v>14985758</v>
+        <v>15670127</v>
       </c>
       <c r="AU66" s="13">
-        <v>15670127</v>
+        <v>15647012</v>
       </c>
       <c r="AV66" s="13">
-        <v>15647012</v>
+        <v>16687425</v>
       </c>
       <c r="AW66" s="13">
-        <v>16687425</v>
+        <v>13600346</v>
       </c>
       <c r="AX66" s="13">
-        <v>13600346</v>
+        <v>27423679</v>
       </c>
       <c r="AY66" s="13">
-        <v>27423679</v>
+        <v>19618636</v>
       </c>
       <c r="AZ66" s="13">
-        <v>19618636</v>
+        <v>21636219</v>
       </c>
       <c r="BA66" s="13">
-        <v>21636219</v>
+        <v>21565920</v>
       </c>
       <c r="BB66" s="13">
-        <v>21565920</v>
+        <v>22462992</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8304,19 +8304,19 @@
         <v>59</v>
       </c>
       <c r="AX73" s="13">
-        <v>3129</v>
+        <v>3131</v>
       </c>
       <c r="AY73" s="13">
-        <v>3131</v>
+        <v>2908</v>
       </c>
       <c r="AZ73" s="13">
-        <v>2908</v>
+        <v>2643</v>
       </c>
       <c r="BA73" s="13">
-        <v>2643</v>
+        <v>5338</v>
       </c>
       <c r="BB73" s="13">
-        <v>5338</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -8463,19 +8463,19 @@
         <v>59</v>
       </c>
       <c r="AX74" s="9">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="AY74" s="9">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="AZ74" s="9">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="BA74" s="9">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="BB74" s="9">
-        <v>269</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -8622,19 +8622,19 @@
         <v>59</v>
       </c>
       <c r="AX75" s="13">
-        <v>343672</v>
+        <v>33762</v>
       </c>
       <c r="AY75" s="13">
-        <v>33762</v>
+        <v>33621</v>
       </c>
       <c r="AZ75" s="13">
-        <v>33621</v>
+        <v>46621</v>
       </c>
       <c r="BA75" s="13">
-        <v>46621</v>
+        <v>41851</v>
       </c>
       <c r="BB75" s="13">
-        <v>41851</v>
+        <v>42927</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -8781,19 +8781,19 @@
         <v>59</v>
       </c>
       <c r="AX76" s="9">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="AY76" s="9">
-        <v>58</v>
+        <v>314</v>
       </c>
       <c r="AZ76" s="9">
-        <v>314</v>
+        <v>660</v>
       </c>
       <c r="BA76" s="9">
-        <v>660</v>
+        <v>715</v>
       </c>
       <c r="BB76" s="9">
-        <v>715</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -8938,19 +8938,19 @@
         <v>0</v>
       </c>
       <c r="AX77" s="19">
-        <v>347241</v>
+        <v>37201</v>
       </c>
       <c r="AY77" s="19">
-        <v>37201</v>
+        <v>37119</v>
       </c>
       <c r="AZ77" s="19">
-        <v>37119</v>
+        <v>50175</v>
       </c>
       <c r="BA77" s="19">
-        <v>50175</v>
+        <v>48173</v>
       </c>
       <c r="BB77" s="19">
-        <v>48173</v>
+        <v>47521</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -9529,19 +9529,19 @@
         <v>59</v>
       </c>
       <c r="AX84" s="13">
-        <v>3304</v>
+        <v>3306</v>
       </c>
       <c r="AY84" s="13">
-        <v>3306</v>
+        <v>3071</v>
       </c>
       <c r="AZ84" s="13">
-        <v>3071</v>
+        <v>2790</v>
       </c>
       <c r="BA84" s="13">
-        <v>2790</v>
+        <v>2773</v>
       </c>
       <c r="BB84" s="13">
-        <v>2773</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -9688,19 +9688,19 @@
         <v>59</v>
       </c>
       <c r="AX85" s="9">
-        <v>101875</v>
+        <v>112196</v>
       </c>
       <c r="AY85" s="9">
-        <v>112196</v>
+        <v>123840</v>
       </c>
       <c r="AZ85" s="9">
-        <v>123840</v>
+        <v>112889</v>
       </c>
       <c r="BA85" s="9">
-        <v>112889</v>
+        <v>120825</v>
       </c>
       <c r="BB85" s="9">
-        <v>120825</v>
+        <v>110295</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -9847,19 +9847,19 @@
         <v>59</v>
       </c>
       <c r="AX86" s="13">
-        <v>6248590</v>
+        <v>6138552</v>
       </c>
       <c r="AY86" s="13">
-        <v>6138552</v>
+        <v>6112989</v>
       </c>
       <c r="AZ86" s="13">
-        <v>6112989</v>
+        <v>6142390</v>
       </c>
       <c r="BA86" s="13">
-        <v>6142390</v>
+        <v>6281135</v>
       </c>
       <c r="BB86" s="13">
-        <v>6281135</v>
+        <v>5719991</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -10006,19 +10006,19 @@
         <v>59</v>
       </c>
       <c r="AX87" s="9">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="AY87" s="9">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="AZ87" s="9">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="BA87" s="9">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="BB87" s="9">
-        <v>209</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -10597,19 +10597,19 @@
         <v>59</v>
       </c>
       <c r="AX94" s="13">
-        <v>947034</v>
+        <v>947066</v>
       </c>
       <c r="AY94" s="13">
-        <v>947066</v>
+        <v>946923</v>
       </c>
       <c r="AZ94" s="13">
-        <v>946923</v>
+        <v>947312</v>
       </c>
       <c r="BA94" s="13">
-        <v>947312</v>
+        <v>1924991</v>
       </c>
       <c r="BB94" s="13">
-        <v>1924991</v>
+        <v>1303785</v>
       </c>
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.3">
@@ -10759,16 +10759,16 @@
         <v>2228</v>
       </c>
       <c r="AY95" s="9">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="AZ95" s="9">
-        <v>2229</v>
+        <v>2223</v>
       </c>
       <c r="BA95" s="9">
-        <v>2223</v>
+        <v>2226</v>
       </c>
       <c r="BB95" s="9">
-        <v>2226</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.3">
@@ -10915,19 +10915,19 @@
         <v>59</v>
       </c>
       <c r="AX96" s="13">
-        <v>55000</v>
+        <v>5500</v>
       </c>
       <c r="AY96" s="13">
         <v>5500</v>
       </c>
       <c r="AZ96" s="13">
-        <v>5500</v>
+        <v>7590</v>
       </c>
       <c r="BA96" s="13">
-        <v>7590</v>
+        <v>6663</v>
       </c>
       <c r="BB96" s="13">
-        <v>6663</v>
+        <v>7505</v>
       </c>
     </row>
     <row r="97" spans="2:54" x14ac:dyDescent="0.3">
@@ -11074,19 +11074,19 @@
         <v>59</v>
       </c>
       <c r="AX97" s="9">
-        <v>3042857</v>
+        <v>3411765</v>
       </c>
       <c r="AY97" s="9">
-        <v>3411765</v>
+        <v>3413043</v>
       </c>
       <c r="AZ97" s="9">
-        <v>3413043</v>
+        <v>3419689</v>
       </c>
       <c r="BA97" s="9">
-        <v>3419689</v>
+        <v>3421053</v>
       </c>
       <c r="BB97" s="9">
-        <v>3421053</v>
+        <v>3419355</v>
       </c>
     </row>
   </sheetData>
